--- a/July 2018/Saturday_Sunday_Weekday/Validation/Valid_SatModel_July.xlsx
+++ b/July 2018/Saturday_Sunday_Weekday/Validation/Valid_SatModel_July.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\July 2018\Saturday_Sunday_Weekday\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D795B30D-429E-4A6B-977E-26E79D026E8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D625E32C-3AA4-44AD-BDBF-A3985709417A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{F66006E2-9CA7-4D83-B172-36A269FC99BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{E0CB4D58-9273-417D-90C2-5642737D9302}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="19" r:id="rId1"/>
@@ -781,7 +781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800D4B9E-B80E-4AA0-9F80-A2414882DDCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB16F4AD-0C9E-4888-AB0A-59239EC76B02}">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1521,53 +1521,53 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="Scalar!A1" display="Convert" xr:uid="{55ED3EFE-5729-4E44-BFF6-86E3E2624B57}"/>
-    <hyperlink ref="A3" location="d!A1" display="d" xr:uid="{C1A3F6B9-F98C-4B7C-9CBE-FF8DDD44A160}"/>
-    <hyperlink ref="A4" location="Scalar!A1" display="Daily_RelRange" xr:uid="{5C8A2A50-76BB-42A1-99E6-AAC827F90CDF}"/>
-    <hyperlink ref="A5" location="Duration!A1" display="Duration" xr:uid="{194899CA-177E-4AFD-A317-232711399999}"/>
-    <hyperlink ref="A7" location="Energy_Rate!A1" display="Energy_Rate" xr:uid="{65EADBEB-2C22-462B-809D-A4E55B112A4B}"/>
-    <hyperlink ref="A8" location="EQ10_EnergyGen!A1" display="EQ10_EnergyGen" xr:uid="{CCC74089-FA2F-40F8-8DC7-5806340E899D}"/>
-    <hyperlink ref="A9" location="Scalar!A1" display="EQ11_EnergyRevenue" xr:uid="{B98F519D-EB04-4918-9695-479D16740A8C}"/>
-    <hyperlink ref="A10" location="EQ12_Simulation!A1" display="EQ12_Simulation" xr:uid="{797EFAE0-92E1-4FF4-80C7-03B4E5F592A0}"/>
-    <hyperlink ref="A11" location="Scalar!A1" display="EQ1_ResMassBal" xr:uid="{DA8E23B9-55AF-4016-A08A-6CBC2C80DF75}"/>
-    <hyperlink ref="A12" location="Scalar!A1" display="EQ2_reqpowerstorage" xr:uid="{ED5AAB6C-6C3A-4243-8F66-E9D2C305ABB5}"/>
-    <hyperlink ref="A13" location="Scalar!A1" display="EQ3_maxstor" xr:uid="{3A5B329F-2FBC-470F-A0F1-EFD4A3927392}"/>
-    <hyperlink ref="A14" location="EQ4_MaxR!A1" display="EQ4_MaxR" xr:uid="{FCE8E54A-9E93-4DEF-A24B-A685EB6455A2}"/>
-    <hyperlink ref="A15" location="EQ5_MinR!A1" display="EQ5_MinR" xr:uid="{6E5F646A-E08C-486C-914A-9D63B70E96EE}"/>
-    <hyperlink ref="A16" location="EQ6_Rel_Range!A1" display="EQ6_Rel_Range" xr:uid="{8554FC7B-353D-47A5-80B1-DB7AEADFC93A}"/>
-    <hyperlink ref="A17" location="Scalar!A1" display="EQ7_RelVolume" xr:uid="{5CA60949-3BD9-4FD3-8A4B-8FCD078FAF95}"/>
-    <hyperlink ref="A18" location="EQ8_OffPeak_Release!A1" display="EQ8_OffPeak_Release" xr:uid="{1001AEF4-6DC5-4A90-BF8B-A90A6D00625C}"/>
-    <hyperlink ref="A19" location="EQ9_EnergyGen_Max!A1" display="EQ9_EnergyGen_Max" xr:uid="{461D0CDF-84B6-4A0D-AA8C-38B2D1C42638}"/>
-    <hyperlink ref="A20" location="Scalar!A1" display="evap" xr:uid="{28D4D8A7-61CC-45EA-AFFA-4C6296EC6E9E}"/>
-    <hyperlink ref="A21" location="Scalar!A1" display="FStore" xr:uid="{7150EE7D-B0F9-428E-8890-251A5D0B2E59}"/>
-    <hyperlink ref="A22" location="Scalar!A1" display="Inflow" xr:uid="{28D48615-4382-442F-9A82-4C15EB47EF66}"/>
-    <hyperlink ref="A23" location="Scalar!A1" display="Initstorage" xr:uid="{4FD9BEC9-CB06-4800-BA8B-4CB2399296FC}"/>
-    <hyperlink ref="A24" location="Scalar!A1" display="maxRel" xr:uid="{416C6662-632F-42BE-BC8C-A000BE9819B2}"/>
-    <hyperlink ref="A25" location="Scalar!A1" display="maxstorage" xr:uid="{8C048AFB-3403-4B33-9530-6E6724363173}"/>
-    <hyperlink ref="A26" location="Scalar!A1" display="minRel" xr:uid="{136A7338-001C-4799-ACC0-1F9F0F53E573}"/>
-    <hyperlink ref="A27" location="Scalar!A1" display="minstorage" xr:uid="{EBC91B29-6711-4E45-91D3-7E962295D832}"/>
-    <hyperlink ref="A28" location="ModelResults!A1" display="ModelResults" xr:uid="{B6893AD6-54FE-42F6-A50A-BD824BF58AA7}"/>
-    <hyperlink ref="A29" location="modpar!A1" display="modpar" xr:uid="{640537F3-6984-451E-9C0A-676B8FE79305}"/>
-    <hyperlink ref="A30" location="Num_Days!A1" display="Num_Days" xr:uid="{97526AD2-778E-4E4D-99C4-B1804F32436B}"/>
-    <hyperlink ref="A31" location="Scalar!A1" display="ObjectiveVal" xr:uid="{A5C96FE2-9945-4884-99DC-E6EE84CDE2C5}"/>
-    <hyperlink ref="A32" location="Observed_Rel!A1" display="Observed_Rel" xr:uid="{BF2DDD7F-199B-445E-956B-33A7A64F69EC}"/>
-    <hyperlink ref="A33" location="p!A1" display="p" xr:uid="{388A835C-AB63-4F4F-A841-F945511571D0}"/>
-    <hyperlink ref="A35" location="Scalar!A1" display="Released_vol" xr:uid="{CB86E1CB-D133-4999-8039-DED19423FA37}"/>
-    <hyperlink ref="A36" location="RStore!A1" display="RStore" xr:uid="{D205068F-17DF-4CC0-AD4C-5D130111A33F}"/>
-    <hyperlink ref="A37" location="Scalar!A1" display="Saturdays" xr:uid="{0AE6B146-06E7-4883-965A-B1D8011C8A74}"/>
-    <hyperlink ref="A38" location="Scalar!A1" display="Sstore" xr:uid="{8CD24A7E-1AAB-4F18-9513-CE24FD4096ED}"/>
-    <hyperlink ref="A39" location="Scalar!A1" display="storage" xr:uid="{13907609-5576-4DE3-B4D7-DB272226D8DA}"/>
-    <hyperlink ref="A40" location="Scalar!A1" display="Sundays" xr:uid="{C87B76C0-E8DE-46D0-B5C9-BED246C9CDE2}"/>
-    <hyperlink ref="A41" location="Scalar!A1" display="Totaldays" xr:uid="{42034D98-E61F-4F73-A933-53240D636CEA}"/>
-    <hyperlink ref="A42" location="Scalar!A1" display="Weekdays" xr:uid="{43BD940A-EF4D-4060-B285-211A8069EA06}"/>
-    <hyperlink ref="A43" location="XStore!A1" display="XStore" xr:uid="{FAB8D056-9566-425E-A0AC-DF4A9E3B7733}"/>
+    <hyperlink ref="A2" location="Scalar!A1" display="Convert" xr:uid="{3223F384-E773-41D5-B324-CB050B381750}"/>
+    <hyperlink ref="A3" location="d!A1" display="d" xr:uid="{92949451-EE90-4763-99A5-99F48BC7CBCE}"/>
+    <hyperlink ref="A4" location="Scalar!A1" display="Daily_RelRange" xr:uid="{6883A247-AE29-4ADD-A984-0FF3FBBB63FE}"/>
+    <hyperlink ref="A5" location="Duration!A1" display="Duration" xr:uid="{3B5FEBAA-1A8D-463C-9F14-99DFFFC805D4}"/>
+    <hyperlink ref="A7" location="Energy_Rate!A1" display="Energy_Rate" xr:uid="{1160F435-28A2-401C-A3E5-EBCF08E31B37}"/>
+    <hyperlink ref="A8" location="EQ10_EnergyGen!A1" display="EQ10_EnergyGen" xr:uid="{3790157B-B7A7-4C7A-88C3-8B6F388DE047}"/>
+    <hyperlink ref="A9" location="Scalar!A1" display="EQ11_EnergyRevenue" xr:uid="{DE5E368C-B486-422A-AF3A-D9352529C469}"/>
+    <hyperlink ref="A10" location="EQ12_Simulation!A1" display="EQ12_Simulation" xr:uid="{C865B5CF-7E4E-44AF-8892-5F51E39748BF}"/>
+    <hyperlink ref="A11" location="Scalar!A1" display="EQ1_ResMassBal" xr:uid="{617D7233-59DB-4363-8636-48DC00412E2B}"/>
+    <hyperlink ref="A12" location="Scalar!A1" display="EQ2_reqpowerstorage" xr:uid="{75A42804-0D80-4212-A047-30FEF5C3D80D}"/>
+    <hyperlink ref="A13" location="Scalar!A1" display="EQ3_maxstor" xr:uid="{78575BE4-084F-46FE-8232-AB7056A45A96}"/>
+    <hyperlink ref="A14" location="EQ4_MaxR!A1" display="EQ4_MaxR" xr:uid="{03F63A35-9657-4441-A952-E7B06DAD69DA}"/>
+    <hyperlink ref="A15" location="EQ5_MinR!A1" display="EQ5_MinR" xr:uid="{38A6643B-3554-459C-B6D9-C4BDBBE7D266}"/>
+    <hyperlink ref="A16" location="EQ6_Rel_Range!A1" display="EQ6_Rel_Range" xr:uid="{E87225EE-07B6-4E83-B517-BCDF6D1FC4FA}"/>
+    <hyperlink ref="A17" location="Scalar!A1" display="EQ7_RelVolume" xr:uid="{2B966335-399C-4B10-9190-A9D7B98CBEE6}"/>
+    <hyperlink ref="A18" location="EQ8_OffPeak_Release!A1" display="EQ8_OffPeak_Release" xr:uid="{C8E1A2C4-1FA1-44B7-A8A7-9EB58ACBEB8C}"/>
+    <hyperlink ref="A19" location="EQ9_EnergyGen_Max!A1" display="EQ9_EnergyGen_Max" xr:uid="{B8FED818-8DB2-4031-AA85-80C8CD1D3D1C}"/>
+    <hyperlink ref="A20" location="Scalar!A1" display="evap" xr:uid="{E346E746-158A-44AE-94CD-07B74B4C99F7}"/>
+    <hyperlink ref="A21" location="Scalar!A1" display="FStore" xr:uid="{991CB05B-1C42-4756-9CCD-E24B08F96749}"/>
+    <hyperlink ref="A22" location="Scalar!A1" display="Inflow" xr:uid="{9505D0CA-B473-48A2-8F27-2137A5B38490}"/>
+    <hyperlink ref="A23" location="Scalar!A1" display="Initstorage" xr:uid="{84B929B9-FCDF-4BC1-ABE1-28BAAF10E813}"/>
+    <hyperlink ref="A24" location="Scalar!A1" display="maxRel" xr:uid="{26534A8D-4199-4218-95FD-FED842C34888}"/>
+    <hyperlink ref="A25" location="Scalar!A1" display="maxstorage" xr:uid="{922984D4-4F6F-4168-B687-52927C6C538A}"/>
+    <hyperlink ref="A26" location="Scalar!A1" display="minRel" xr:uid="{4DF40310-DEB0-4592-A320-72D95E55F0F4}"/>
+    <hyperlink ref="A27" location="Scalar!A1" display="minstorage" xr:uid="{755660CF-7393-4C1D-A67D-68136EE3B2C5}"/>
+    <hyperlink ref="A28" location="ModelResults!A1" display="ModelResults" xr:uid="{5EE76CD6-080E-43D1-A84A-C203A10A7A02}"/>
+    <hyperlink ref="A29" location="modpar!A1" display="modpar" xr:uid="{1FDA6318-023B-439B-A225-166930AD05F4}"/>
+    <hyperlink ref="A30" location="Num_Days!A1" display="Num_Days" xr:uid="{1A82E91A-3EE2-4C19-B9B5-9652A1605624}"/>
+    <hyperlink ref="A31" location="Scalar!A1" display="ObjectiveVal" xr:uid="{236D0236-22EB-4F94-A562-C6C6E56BB5E6}"/>
+    <hyperlink ref="A32" location="Observed_Rel!A1" display="Observed_Rel" xr:uid="{E236A203-715B-4996-A57A-1E3D5A82C3B4}"/>
+    <hyperlink ref="A33" location="p!A1" display="p" xr:uid="{289E16C4-F925-4816-A0BE-0515EEB80687}"/>
+    <hyperlink ref="A35" location="Scalar!A1" display="Released_vol" xr:uid="{7D55E2C6-639B-4DA8-957C-FE2B79622152}"/>
+    <hyperlink ref="A36" location="RStore!A1" display="RStore" xr:uid="{91DC58E0-EA1A-4676-A054-813B258DB01E}"/>
+    <hyperlink ref="A37" location="Scalar!A1" display="Saturdays" xr:uid="{9E072513-1316-40E0-913E-B4F342F63331}"/>
+    <hyperlink ref="A38" location="Scalar!A1" display="Sstore" xr:uid="{17FDB5E6-E089-4F81-8507-D847D10551F4}"/>
+    <hyperlink ref="A39" location="Scalar!A1" display="storage" xr:uid="{48BF6151-1CA1-4632-92A8-987E97096B72}"/>
+    <hyperlink ref="A40" location="Scalar!A1" display="Sundays" xr:uid="{4C8AA62A-8EBD-439D-B8B5-75DAF9C2AD02}"/>
+    <hyperlink ref="A41" location="Scalar!A1" display="Totaldays" xr:uid="{ADF3CCBD-759D-4284-8456-65A584566504}"/>
+    <hyperlink ref="A42" location="Scalar!A1" display="Weekdays" xr:uid="{31CCE1E4-A3C9-4CC2-B80D-1A5F45E9A281}"/>
+    <hyperlink ref="A43" location="XStore!A1" display="XStore" xr:uid="{28E42B72-6D34-4E18-8EA3-8F099C738079}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1E4055-E4FD-446A-9A4C-ADDD0EFF7D47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F979C6E1-5572-4BE1-BD5A-24A46022DD9F}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1662,16 +1662,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E6" xr:uid="{105DDF3A-00D1-4134-AD90-0B7FE5E356A6}"/>
+  <autoFilter ref="A3:E6" xr:uid="{52FAABB3-AF5F-4C4D-86B3-D41BCF3A7A63}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{47670E27-C1FC-4082-A8A6-A50BA9E8BE0C}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3A7106BA-1C1D-4296-92B8-E88ECFF4E563}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7CF33C-5B33-41BD-969D-C8765DAD2717}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFFAB89-7E8E-47FF-87E3-F18C15D5F789}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1766,16 +1766,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E6" xr:uid="{AC5B01F7-15B8-4486-B112-FC7A208A3808}"/>
+  <autoFilter ref="A3:E6" xr:uid="{9BCC61FE-8737-43C8-BDC2-31784098BCD5}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{8CA4D792-1DF8-4E4E-A408-07421168ABA8}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{D243A214-0958-44FB-9B3F-EC5BD01E50A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1B19E4-0961-4884-83D4-5AC466F84677}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5CFA21-5BEE-4B11-9A3A-8305C16BC189}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1942,16 +1942,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{1E047168-E7EB-4C4B-AE22-FE69B5F2668A}"/>
+  <autoFilter ref="A3:F9" xr:uid="{171A2B84-DC17-4245-9872-2F0B295D8107}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{AAF9E496-2A9E-43E9-BE82-C46B85171237}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E6C87934-D0D6-46A5-A090-D3C2AD7AC823}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724B354E-602F-4D06-A760-E61082A01046}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B3774F-432B-4F2E-A835-44C27179CBE6}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2002,16 +2002,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{55295D34-8689-4D2A-BD40-43099260A546}"/>
+  <autoFilter ref="A3:B5" xr:uid="{C8E7BC10-BBBD-48F4-866C-C73C0995974A}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{46B21788-7AC0-4A29-BA0E-9C138F3D4666}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{12CFC238-5D82-457C-9B82-3BC6661EE16D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5CFBBA-AD1D-4CDA-A948-5A29E6EB6032}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D0C9E2-D2EC-4ECC-8539-14FB9FD5B4B5}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2059,16 +2059,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{F1E1A51F-F294-4172-93A1-08A82DFFD053}"/>
+  <autoFilter ref="A3:A5" xr:uid="{4BEFF39F-5E0E-4067-A3CA-9CE5E4B6F739}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{8BF666B5-DBD8-44E1-94CE-47EF169C635B}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{06A96B09-78DC-46C9-BC51-60958041F078}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9B1590-2114-4E4F-BCA6-F212E99C2829}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF65BC9-0224-4774-B33A-CACC083EF441}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2127,16 +2127,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B6" xr:uid="{9CEE1FED-EE85-4DA8-BA9C-946F593E5334}"/>
+  <autoFilter ref="A3:B6" xr:uid="{BA4798DC-2ACC-4521-91F0-C4A3C8F0F9E2}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{60AD72EB-49AC-4DC5-BF6D-075FDF7EEF6F}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A7D8B040-2E01-4BED-8D7B-5577A49E61BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F87664-78C5-490D-ADEF-B2F5B96C161C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B2EB87-59AA-4146-9028-C0655FB25FDE}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2240,16 +2240,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{67D28423-B930-4A29-923D-802CCC873A5B}"/>
+  <autoFilter ref="A3:C9" xr:uid="{05879F19-B7DA-4523-A5A8-8269E286CF4C}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B2EE16FF-8439-4048-B143-4C9D73A47FC0}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{AE7C1571-C368-4250-ADDE-6F8EB1FD1E2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A628887-F304-4246-BC4A-7F52C291AECB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF079DBF-1436-41C9-825B-2246D2D2982C}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2297,16 +2297,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{B01495D2-96E9-4ADC-A1C0-CCE04B110473}"/>
+  <autoFilter ref="A3:A5" xr:uid="{76A9AA76-8A44-41B3-A8A5-160D71AFA0D4}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B19B6A4F-6811-4853-917F-E5679E29DDEB}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C2E488AD-911C-4B6A-88E1-812B6C6D83C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2E127E-9730-4CCC-80FC-FC4A687B0E49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1125C5-591E-42C1-9073-165957A7B20E}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2410,16 +2410,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{874B7A2A-3BA8-4E72-9D20-1F837AAF5B9F}"/>
+  <autoFilter ref="A3:C9" xr:uid="{5A9DD3F8-BCE2-41A1-A62B-48DAE791E7FD}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{EB33ADD7-9520-421C-9151-AA17B495E0FC}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{EF0CC2D9-6790-4DCC-9F76-12249CC9189D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE3BC83-52CD-438E-95FF-FB9D3493BF74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CA6E4E-5E2F-474E-96BA-958B80440057}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2523,16 +2523,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{62C29F98-DA39-40C4-8070-6E702BC1B955}"/>
+  <autoFilter ref="A3:C9" xr:uid="{720C6F8C-AD5D-4003-8A61-882049ECB2AF}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E6EE7418-2A1F-49BD-99BC-CC7D492FEB1D}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{FF46C33A-B61A-4610-8252-A12A9CBB4AA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254DD7E5-63BB-4E63-96C3-3C0DA5576D15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9E19A1-9229-4180-9284-778484068548}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2593,7 +2593,7 @@
         <v>64</v>
       </c>
       <c r="B6">
-        <v>19941703.018027719</v>
+        <v>26150218.018811483</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
@@ -2922,14 +2922,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{FFF1A8A1-0D59-4349-B017-1F2503F819D7}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{D7CA9CA8-7D37-4CBC-9FEC-F5CF1E1F6901}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548DA4B6-5065-41CF-8F5F-76AB5DFC6226}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B1161B-95F6-4020-A271-5E29D16DD994}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2976,16 +2976,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A6" xr:uid="{6357DA25-BCCA-407E-ABED-DE860F4268F9}"/>
+  <autoFilter ref="A3:A6" xr:uid="{F36DD306-DF42-4105-B580-7299DB71B849}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{FF0981CC-9C92-498E-8B78-8F6CE20BB3F8}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{5DE1CA73-C6C5-4196-B4A4-9059F27DAAC6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB09954-5FDC-4476-B0C6-4E7CD67B5B5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2511592-6218-44C1-82CC-81AC222D1E03}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3036,16 +3036,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{C7E00C1B-7C43-4C86-A398-35F2D5CA36B5}"/>
+  <autoFilter ref="A3:B5" xr:uid="{0EA8F2EA-5FFD-4DB4-863D-48F5D5DDAB4A}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A887114C-AA93-4B77-B266-528512DD8F49}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{173ADC17-1D56-4BF2-8986-9F5DF6EDE11F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16677546-D443-4EE4-B56E-169B3CF10427}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E315FA8-6DFD-4BDB-8E0E-0A5F543F4E03}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3101,7 +3101,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>80.08</v>
+        <v>46.55</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3145,20 +3145,20 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>46.55</v>
+        <v>80.08</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{1B768D37-CBEE-4107-A822-B2375F9460C2}"/>
+  <autoFilter ref="A3:C9" xr:uid="{55076580-5E96-4129-A474-63002ACE3442}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{FC58FD09-5ACC-4303-A5B4-A9B7E8B934DD}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{551228BE-1DE0-4DF9-9668-331C16F9C6D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6195EC47-E436-41CD-A280-30858CD72698}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082ED085-C85F-4F9B-B729-864140575DD9}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>400.4</v>
+        <v>232.75</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3321,20 +3321,20 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1024.0999999999999</v>
+        <v>1761.76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{A0E994AB-F4B9-4A10-8BF5-E5F63F9CA8C2}"/>
+  <autoFilter ref="A3:F9" xr:uid="{003CCA5A-E5F0-4CDD-900F-40F14A256A06}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B9121860-A8C7-42E3-9AC7-E2D393C811E8}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{17793790-101B-436A-B9EF-81EAA207F47B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6687619-5DE7-4F3A-A5D9-8B81C9AB0D6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8750D3D3-3083-4755-B666-431F44644437}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3417,7 +3417,7 @@
         <v>11398.13</v>
       </c>
       <c r="F5">
-        <v>237.99776</v>
+        <v>138.3466</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3497,20 +3497,20 @@
         <v>16750.14</v>
       </c>
       <c r="F9">
-        <v>608.72504000000004</v>
+        <v>1047.1901440000001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{7DD83298-30FF-462E-B780-1C364A5C44C9}"/>
+  <autoFilter ref="A3:F9" xr:uid="{D0A09DC6-DD63-4BC9-99F7-979947DB1552}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{7F0292DA-898E-4459-944D-6B12358EF006}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{56156B6B-722E-47B2-8464-9EAD01C56847}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB5381C-A706-42E2-99A0-D4E952BE6C4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63789C3F-E03F-4604-A6DF-2D80D487E890}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3677,16 +3677,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{62BFBE07-E9FB-4004-BE90-43D2EC612098}"/>
+  <autoFilter ref="A3:F9" xr:uid="{2F7140FE-1813-433F-97EE-D4105EEFB820}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{BE97128A-C392-4123-883A-B175F74477F3}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{0E2FDEC6-DFAD-4E5F-8AEA-276C1414D5F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51B645B-E84C-4DD5-AD22-BF1F2FB5C115}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89A32D2-FF74-4065-9774-44245DC62169}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3853,9 +3853,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{86BF598B-6315-4204-A41F-96FF4FFFD256}"/>
+  <autoFilter ref="A3:F9" xr:uid="{663E0552-3BEC-43DE-93BA-3E980C3E415A}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A1537267-5DB0-40FF-B217-39CA4ACB06B9}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6AE4BA7B-BC44-4E0E-9A90-668112698501}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
